--- a/Files/Salida.xlsx
+++ b/Files/Salida.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DAVID SALAZAR\ProyectosBECA\Python\ComparePDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beca_is2\source\repos\PythonProject\PythonProject\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2414407-2920-42FD-8E50-AB5E14456D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4410607-20C7-45DD-9CF1-9E981FB8AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1215" windowWidth="18900" windowHeight="10965" xr2:uid="{77DA6310-A468-4CFA-8CEB-C32D0E878147}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="29040" windowHeight="15720" xr2:uid="{77DA6310-A468-4CFA-8CEB-C32D0E878147}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -435,16 +435,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -500,12 +500,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
